--- a/Resource/excel/商城-商店配置.xlsx
+++ b/Resource/excel/商城-商店配置.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="23430" tabRatio="710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="23430" tabRatio="710"/>
   </bookViews>
   <sheets>
     <sheet name="store" sheetId="14" r:id="rId1"/>
@@ -23,7 +28,7 @@
     <author>PCC</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="1">
+    <comment ref="C4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="1">
+    <comment ref="E4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="1">
+    <comment ref="G4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -225,14 +230,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -266,157 +265,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -428,201 +276,15 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -630,251 +292,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -922,61 +342,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -998,12 +370,15 @@
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="0005FF6F"/>
+      <color rgb="FF05FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1332,23 +707,22 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.75" style="6" customWidth="1"/>
     <col min="2" max="2" width="16" style="6" customWidth="1"/>
@@ -1363,7 +737,7 @@
     <col min="15" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1378,7 +752,7 @@
       </c>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:7">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1401,7 +775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:7">
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -1424,7 +798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:7">
+    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1447,7 +821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" ht="15" customHeight="1" spans="1:9">
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>100101</v>
       </c>
@@ -1470,7 +844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" ht="15" customHeight="1" spans="1:9">
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>100102</v>
       </c>
@@ -1499,7 +873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" spans="1:8">
+    <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>200101</v>
       </c>
@@ -1519,10 +893,21 @@
         <v>24</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resource/excel/商城-商店配置.xlsx
+++ b/Resource/excel/商城-商店配置.xlsx
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>*dark_config</t>
   </si>
@@ -204,27 +204,6 @@
   </si>
   <si>
     <t>RefreshCost(string)</t>
-  </si>
-  <si>
-    <t>营地商人，钻石商店</t>
-  </si>
-  <si>
-    <t>固定商城</t>
-  </si>
-  <si>
-    <t>1:3-4</t>
-  </si>
-  <si>
-    <t>营地商人，金币商店</t>
-  </si>
-  <si>
-    <t>随机商城</t>
-  </si>
-  <si>
-    <t>2:2-3</t>
-  </si>
-  <si>
-    <t>探索商人</t>
   </si>
 </sst>
 </file>
@@ -713,13 +692,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:I7"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -737,7 +716,7 @@
     <col min="15" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -752,7 +731,7 @@
       </c>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -775,7 +754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -798,7 +777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -821,88 +800,38 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
-        <v>100101</v>
-      </c>
-      <c r="B5" s="12">
-        <v>5</v>
-      </c>
-      <c r="C5" s="12">
+    <row r="5" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
         <v>0</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
-        <v>100102</v>
-      </c>
-      <c r="B6" s="12">
-        <v>5</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="D6" s="13">
-        <v>101</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="12">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>22</v>
-      </c>
+    <row r="6" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
-        <v>200101</v>
-      </c>
-      <c r="B7" s="12">
-        <v>6</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
+    <row r="7" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
-      <c r="H7" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
